--- a/biology/Botanique/Dillenianae/Dillenianae.xlsx
+++ b/biology/Botanique/Dillenianae/Dillenianae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dilleniales sont un ordre de plantes dicotylédones. La classification des plantes qui en font partie donne lieu a de nombreuses hésitations. En 2016, la classification phylogénétique APG IV (2016)[1] l'accepte de nouveau pour classer les Dilléniacées, tandis que les Paéoniacées restent dans les Saxifragales d'après la classification phylogénétique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dilleniales sont un ordre de plantes dicotylédones. La classification des plantes qui en font partie donne lieu a de nombreuses hésitations. En 2016, la classification phylogénétique APG IV (2016) l'accepte de nouveau pour classer les Dilléniacées, tandis que les Paéoniacées restent dans les Saxifragales d'après la classification phylogénétique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (2 octobre 2016)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (2 octobre 2016) :
 famille Dilleniaceae Salisb.</t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[3], il ne comprend que deux familles :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), il ne comprend que deux familles :
 famille Dilleniaceae
 famille Paeoniaceae
-En classification phylogénétique APG (1998)[4] et classification phylogénétique APG II (2003)[5], cet ordre n'est pas reconnu. Les Dilléniacées sont rattachées directement au noyau des Dicotylédones vraies (en:core eudicots) alors que les Paéoniacées font partie de l'ordre des Saxifragales.
+En classification phylogénétique APG (1998) et classification phylogénétique APG II (2003), cet ordre n'est pas reconnu. Les Dilléniacées sont rattachées directement au noyau des Dicotylédones vraies (en:core eudicots) alors que les Paéoniacées font partie de l'ordre des Saxifragales.
 Dans la classification plus moderne de Angiosperm Phylogeny Website et NCBI-site [21 février 2007], cet ordre est accepté de nouveau: en ce cas il comprend seulement les Dilléniacées.
-En classification phylogénétique APG III (2009)[6], cet ordre n'est toujours pas reconnu.
-En classification phylogénétique APG IV (2016)[1], l'ordre des Dilleniales est de nouveau accepté pour les seuls Dilleniaceae.
+En classification phylogénétique APG III (2009), cet ordre n'est toujours pas reconnu.
+En classification phylogénétique APG IV (2016), l'ordre des Dilleniales est de nouveau accepté pour les seuls Dilleniaceae.
 </t>
         </is>
       </c>
